--- a/data/hawkmoth-CA-per-indiv.xlsx
+++ b/data/hawkmoth-CA-per-indiv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Clemson_Post-doc\wetability\wet-data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Clemson_Post-doc\wetability\wet-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA0DA34-7745-48B1-A1AE-890DFFE1FE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4312A88A-73E9-41C2-8B7B-DE9CDDF21D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M.quinquemaculata" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="43">
   <si>
     <t>Eumorpha fasciatus</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>right.mean</t>
+  </si>
+  <si>
+    <t>right.sd</t>
+  </si>
+  <si>
+    <t>left.mean</t>
+  </si>
+  <si>
+    <t>left.sd</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>AVG.sd</t>
   </si>
 </sst>
 </file>
@@ -511,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +541,7 @@
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -531,7 +549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -566,7 +584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="S3" t="s">
         <v>32</v>
       </c>
@@ -580,7 +598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -633,7 +651,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -686,7 +704,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -739,7 +757,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -792,7 +810,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -845,7 +863,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -901,7 +919,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -949,7 +967,7 @@
         <v>7.0313583324987778</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -978,7 +996,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -995,7 +1013,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1012,7 +1030,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1063,7 +1081,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1113,8 +1131,26 @@
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U15" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" t="s">
+        <v>38</v>
+      </c>
+      <c r="W15" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1131,8 +1167,35 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" ref="U16:U21" si="0">AVERAGE(C4,F4,I4,L4,O4)</f>
+        <v>85.066666666666663</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ref="V16:V21" si="1">_xlfn.STDEV.P(C4,F4,I4,L4,O4)</f>
+        <v>4.4591977355175061</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" ref="W16:W21" si="2">AVERAGE(D4,G4,J4,M4,P4)</f>
+        <v>85.1</v>
+      </c>
+      <c r="X16">
+        <f t="shared" ref="X16:X21" si="3">_xlfn.STDEV.P(D4,G4,J4,M4,P4)</f>
+        <v>4.1761226035642194</v>
+      </c>
+      <c r="Y16" s="1">
+        <f>AVERAGE(U16,W16)</f>
+        <v>85.083333333333329</v>
+      </c>
+      <c r="Z16">
+        <f>AVERAGE(V16,X16)</f>
+        <v>4.3176601695408632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1158,8 +1221,35 @@
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="0"/>
+        <v>54.58133333333334</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>9.8198333545488801</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="2"/>
+        <v>55.045333333333339</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="3"/>
+        <v>10.085005282871942</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" ref="Y17:Y23" si="4">AVERAGE(U17,W17)</f>
+        <v>54.81333333333334</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" ref="Z17:Z23" si="5">AVERAGE(V17,X17)</f>
+        <v>9.9524193187104117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1194,8 +1284,35 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T18" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="0"/>
+        <v>51.133333333333333</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>9.3299994045492802</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="2"/>
+        <v>51.066666666666663</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="3"/>
+        <v>9.2457798180815818</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="4"/>
+        <v>51.099999999999994</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="5"/>
+        <v>9.2878896113154319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1212,8 +1329,35 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="0"/>
+        <v>50.258500000000005</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>10.146947274919668</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="2"/>
+        <v>50.054166666666667</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="3"/>
+        <v>9.117934859994941</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="4"/>
+        <v>50.156333333333336</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="5"/>
+        <v>9.6324410674573038</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1230,8 +1374,35 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="0"/>
+        <v>51.847666666666669</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>9.498838502095305</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="2"/>
+        <v>52.410000000000004</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="3"/>
+        <v>10.272571894775576</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="4"/>
+        <v>52.128833333333333</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="5"/>
+        <v>9.8857051984354403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1259,6 +1430,120 @@
         <v>97</v>
       </c>
       <c r="P21" s="1"/>
+      <c r="T21" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="0"/>
+        <v>50.590666666666671</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5899161553274084</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="2"/>
+        <v>50.463333333333331</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="3"/>
+        <v>8.3340559686678883</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="4"/>
+        <v>50.527000000000001</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="5"/>
+        <v>8.4619860619976492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="1">
+        <f>AVERAGE(C10,F10,L10,O10)</f>
+        <v>48.536250000000003</v>
+      </c>
+      <c r="V22">
+        <f>_xlfn.STDEV.P(C10,F10,L10,O10)</f>
+        <v>6.5693562993264445</v>
+      </c>
+      <c r="W22" s="1">
+        <f>AVERAGE(D10,G10,M10,P10)</f>
+        <v>51.085000000000001</v>
+      </c>
+      <c r="X22">
+        <f>_xlfn.STDEV.P(D10,G10,M10,P10)</f>
+        <v>10.01207645795817</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="4"/>
+        <v>49.810625000000002</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="5"/>
+        <v>8.2907163786423066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>11</v>
+      </c>
+      <c r="U23" s="1">
+        <f>AVERAGE(C11,L11)</f>
+        <v>54.796666666666667</v>
+      </c>
+      <c r="V23">
+        <f>_xlfn.STDEV.P(C11,L11)</f>
+        <v>12.796666666666656</v>
+      </c>
+      <c r="W23" s="1">
+        <f>AVERAGE(D11,M11)</f>
+        <v>58.464999999999996</v>
+      </c>
+      <c r="X23">
+        <f>_xlfn.STDEV.P(D11,M11)</f>
+        <v>15.464999999999998</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" si="4"/>
+        <v>56.630833333333328</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="5"/>
+        <v>14.130833333333328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>41</v>
+      </c>
+      <c r="U24" s="1">
+        <f>AVERAGE(U16:U23)</f>
+        <v>55.851385416666666</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" ref="V24:X24" si="6">AVERAGE(V16:V23)</f>
+        <v>8.9013444241188928</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="6"/>
+        <v>56.711187499999994</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" si="6"/>
+        <v>9.5885683607392895</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" ref="Y24" si="7">AVERAGE(U24,W24)</f>
+        <v>56.281286458333327</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" ref="Z24" si="8">AVERAGE(V24,X24)</f>
+        <v>9.2449563924290921</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1267,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,7 +2136,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1869,6 +2154,223 @@
       </c>
       <c r="O17">
         <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="1">
+        <f>AVERAGE(C3,F3,I3,L3,O3)</f>
+        <v>86.773333333333341</v>
+      </c>
+      <c r="T19">
+        <f>_xlfn.STDEV.P(C3,F3,I3,L3,O3)</f>
+        <v>4.0201381955240194</v>
+      </c>
+      <c r="U19" s="1">
+        <f>AVERAGE(D3,G3,J3,M3,P3)</f>
+        <v>85.192333333333337</v>
+      </c>
+      <c r="V19">
+        <f>_xlfn.STDEV.P(D3,G3,J3,M3,P3)</f>
+        <v>6.7180628490990228</v>
+      </c>
+      <c r="W19" s="1">
+        <f>AVERAGE(S19,U19)</f>
+        <v>85.982833333333332</v>
+      </c>
+      <c r="X19">
+        <f>AVERAGE(T19,V19)</f>
+        <v>5.3691005223115216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" ref="S20:S24" si="1">AVERAGE(C4,F4,I4,L4,O4)</f>
+        <v>58.583000000000006</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20:T24" si="2">_xlfn.STDEV.P(C4,F4,I4,L4,O4)</f>
+        <v>8.1728347047466432</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" ref="U20:U24" si="3">AVERAGE(D4,G4,J4,M4,P4)</f>
+        <v>54.570809523809523</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ref="V20:V24" si="4">_xlfn.STDEV.P(D4,G4,J4,M4,P4)</f>
+        <v>13.067752909868579</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" ref="W20:W24" si="5">AVERAGE(S20,U20)</f>
+        <v>56.576904761904764</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ref="X20:X24" si="6">AVERAGE(T20,V20)</f>
+        <v>10.620293807307611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="1"/>
+        <v>36.291333333333327</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>18.960314179300358</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="3"/>
+        <v>35.754999999999995</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="4"/>
+        <v>18.933842129313792</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="5"/>
+        <v>36.023166666666661</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="6"/>
+        <v>18.947078154307075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="1"/>
+        <v>47.152514285714282</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>6.6166905085949388</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="3"/>
+        <v>47.34518095238095</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="4"/>
+        <v>9.7543307860332682</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="5"/>
+        <v>47.248847619047616</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="6"/>
+        <v>8.1855106473141035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="1"/>
+        <v>47.839766666666669</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>7.718910753323792</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="3"/>
+        <v>50.021366666666665</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="4"/>
+        <v>10.915010526996493</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="5"/>
+        <v>48.930566666666664</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="6"/>
+        <v>9.3169606401601435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="1"/>
+        <v>45.979500000000002</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>6.392376768464139</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="3"/>
+        <v>44.029583333333335</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="4"/>
+        <v>7.6346016390836997</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="5"/>
+        <v>45.004541666666668</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="6"/>
+        <v>7.0134892037739194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>41</v>
+      </c>
+      <c r="S25" s="1">
+        <f>AVERAGE(S19:S24)</f>
+        <v>53.769907936507934</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" ref="T25:V25" si="7">AVERAGE(T19:T24)</f>
+        <v>8.6468775183256472</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="7"/>
+        <v>52.819045634920634</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="7"/>
+        <v>11.170600140065808</v>
+      </c>
+      <c r="W25" s="1">
+        <f>AVERAGE(S25,U25)</f>
+        <v>53.294476785714281</v>
+      </c>
+      <c r="X25">
+        <f>AVERAGE(T25,V25)</f>
+        <v>9.9087388291957268</v>
       </c>
     </row>
   </sheetData>
@@ -1878,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,7 +2933,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2449,6 +2951,252 @@
       </c>
       <c r="O17">
         <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T18" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <f>AVERAGE(C3,F3,I3,L3,O3)</f>
+        <v>90</v>
+      </c>
+      <c r="U19">
+        <f>_xlfn.STDEV.P(C3,F3,I3,L3,O3)</f>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f>AVERAGE(D3,G3,J3,M3,P3)</f>
+        <v>90</v>
+      </c>
+      <c r="W19">
+        <f>_xlfn.STDEV.P(D3,G3,J3,M3,P3)</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f>AVERAGE(T19,V19)</f>
+        <v>90</v>
+      </c>
+      <c r="Y19">
+        <f>AVERAGE(U19,W19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S20" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20:T25" si="1">AVERAGE(C4,F4,I4,L4,O4)</f>
+        <v>43.2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ref="U20:U25" si="2">_xlfn.STDEV.P(C4,F4,I4,L4,O4)</f>
+        <v>2.3151673805580448</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ref="V20:V25" si="3">AVERAGE(D4,G4,J4,M4,P4)</f>
+        <v>43</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ref="W20:W25" si="4">_xlfn.STDEV.P(D4,G4,J4,M4,P4)</f>
+        <v>1.7888543819998317</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ref="X20:X25" si="5">AVERAGE(T20,V20)</f>
+        <v>43.1</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ref="Y20:Y25" si="6">AVERAGE(U20,W20)</f>
+        <v>2.0520108812789384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S21" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>41.2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>3.3704599092705432</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="4"/>
+        <v>2.0976176963403033</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="5"/>
+        <v>40.6</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="6"/>
+        <v>2.734038802805423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>41.2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>1.4696938456699069</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="3"/>
+        <v>40.6</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="4"/>
+        <v>2.4979991993593593</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="5"/>
+        <v>40.900000000000006</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="6"/>
+        <v>1.9838465225146331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S23" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="3"/>
+        <v>40.4</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="4"/>
+        <v>3.7202150475476548</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="5"/>
+        <v>40.099999999999994</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="6"/>
+        <v>3.6601075237738279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S24" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>41.6</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="3"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="4"/>
+        <v>2.0396078054371141</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="5"/>
+        <v>41.2</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="6"/>
+        <v>2.6198039027185569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S25" t="s">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>42.6</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>2.0591260281974</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="4"/>
+        <v>1.8973665961010275</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="5"/>
+        <v>42.3</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="6"/>
+        <v>1.9782463121492138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>41</v>
+      </c>
+      <c r="T26">
+        <f>AVERAGE(T19:T25)</f>
+        <v>48.51428571428572</v>
+      </c>
+      <c r="U26">
+        <f t="shared" ref="U26:W26" si="7">AVERAGE(U19:U25)</f>
+        <v>2.2877781662422705</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="7"/>
+        <v>48.114285714285714</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="7"/>
+        <v>2.0059515323978987</v>
+      </c>
+      <c r="X26">
+        <f>AVERAGE(T26,V26)</f>
+        <v>48.314285714285717</v>
+      </c>
+      <c r="Y26">
+        <f>AVERAGE(U26,W26)</f>
+        <v>2.1468648493200844</v>
       </c>
     </row>
   </sheetData>
@@ -2458,10 +3206,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,7 +3769,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3039,6 +3787,223 @@
       </c>
       <c r="O17">
         <v>22.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T18" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <f>AVERAGE(C3,F3,I3,L3,O3)</f>
+        <v>90</v>
+      </c>
+      <c r="U19">
+        <f>_xlfn.STDEV.P(C3,F3,I3,L3,O3)</f>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f>AVERAGE(D3,G3,J3,M3,P3)</f>
+        <v>90</v>
+      </c>
+      <c r="W19">
+        <f>_xlfn.STDEV.P(D3,G3,J3,M3,P3)</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f>AVERAGE(T19,V19)</f>
+        <v>90</v>
+      </c>
+      <c r="Y19">
+        <f>AVERAGE(U19,W19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S20" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20:T24" si="1">AVERAGE(C4,F4,I4,L4,O4)</f>
+        <v>90</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ref="U20:U24" si="2">_xlfn.STDEV.P(C4,F4,I4,L4,O4)</f>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ref="V20:V24" si="3">AVERAGE(D4,G4,J4,M4,P4)</f>
+        <v>90</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ref="W20:W24" si="4">_xlfn.STDEV.P(D4,G4,J4,M4,P4)</f>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ref="X20:X24" si="5">AVERAGE(T20,V20)</f>
+        <v>90</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ref="Y20:Y24" si="6">AVERAGE(U20,W20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S21" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>47.6</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>4.029888335921977</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="4"/>
+        <v>3.6331804249169899</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="5"/>
+        <v>48.3</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="6"/>
+        <v>3.8315343804194835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>45.2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>1.7204650534085253</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="3"/>
+        <v>45.2</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="4"/>
+        <v>0.97979589711327109</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="5"/>
+        <v>45.2</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="6"/>
+        <v>1.3501304752608982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S23" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>44.4</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>1.3564659966250536</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="4"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="5"/>
+        <v>44.7</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="6"/>
+        <v>1.3853397794990743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S24" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>3.687817782917155</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="3"/>
+        <v>43.4</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="4"/>
+        <v>2.0591260281974</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="5"/>
+        <v>42.7</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="6"/>
+        <v>2.8734719055572775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S25" t="s">
+        <v>41</v>
+      </c>
+      <c r="T25">
+        <f>AVERAGE(T19:T24)</f>
+        <v>59.866666666666667</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ref="U25:W25" si="7">AVERAGE(U19:U24)</f>
+        <v>1.7991061948121185</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="7"/>
+        <v>60.43333333333333</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="7"/>
+        <v>1.3477193187667929</v>
+      </c>
+      <c r="X25">
+        <f>AVERAGE(T25,V25)</f>
+        <v>60.15</v>
+      </c>
+      <c r="Y25">
+        <f>AVERAGE(U25,W25)</f>
+        <v>1.5734127567894558</v>
       </c>
     </row>
   </sheetData>
@@ -3048,10 +4013,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3724,8 +4689,136 @@
         <f t="shared" si="2"/>
         <v>1.6077748288451557</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="1">
+        <f>AVERAGE(C3,F3,I3,L3,O3)</f>
+        <v>90</v>
+      </c>
+      <c r="T17">
+        <f>_xlfn.STDEV.P(C3,F3,I3,L3,O3)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <f>AVERAGE(D3,G3,J3,M3,P3)</f>
+        <v>90</v>
+      </c>
+      <c r="V17">
+        <f>_xlfn.STDEV.P(D3,G3,J3,M3,P3)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <f>AVERAGE(S17,U17)</f>
+        <v>90</v>
+      </c>
+      <c r="X17">
+        <f>AVERAGE(T17,V17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" ref="S18:S25" si="3">AVERAGE(C4,F4,I4,L4,O4)</f>
+        <v>49.6</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18:T25" si="4">_xlfn.STDEV.P(C4,F4,I4,L4,O4)</f>
+        <v>6.468384651518492</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" ref="U18:U25" si="5">AVERAGE(D4,G4,J4,M4,P4)</f>
+        <v>46.733333333333334</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ref="V18:V25" si="6">_xlfn.STDEV.P(D4,G4,J4,M4,P4)</f>
+        <v>5.2042717496730191</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" ref="W18:W26" si="7">AVERAGE(S18,U18)</f>
+        <v>48.166666666666671</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18:X26" si="8">AVERAGE(T18,V18)</f>
+        <v>5.8363282005957551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="3"/>
+        <v>44.7</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="4"/>
+        <v>5.4552726787943424</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="5"/>
+        <v>43.6</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="6"/>
+        <v>5.5443665102516446</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="7"/>
+        <v>44.150000000000006</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="8"/>
+        <v>5.4998195945229931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="3"/>
+        <v>45.3</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="4"/>
+        <v>4.2379240200834181</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="6"/>
+        <v>4.8579831205964474</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="7"/>
+        <v>44.15</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="8"/>
+        <v>4.5479535703399332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3743,6 +4836,178 @@
       </c>
       <c r="O21">
         <v>42</v>
+      </c>
+      <c r="R21" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="3"/>
+        <v>45.8</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="4"/>
+        <v>3.3704599092705432</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="6"/>
+        <v>3.687817782917155</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="7"/>
+        <v>44.9</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="8"/>
+        <v>3.5291388460938489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="3"/>
+        <v>44.8</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="4"/>
+        <v>5.0358713248056688</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="5"/>
+        <v>42.7</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="6"/>
+        <v>4.0447496832313377</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="7"/>
+        <v>43.75</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="8"/>
+        <v>4.5403105040185032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="3"/>
+        <v>45.6</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="4"/>
+        <v>4.4988887516807967</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="5"/>
+        <v>44.4</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="6"/>
+        <v>3.2619012860600178</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="8"/>
+        <v>3.8803950188704075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="3"/>
+        <v>46.4</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="4"/>
+        <v>4.0792156108742272</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="5"/>
+        <v>46.8</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="6"/>
+        <v>2.9933259094191533</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="7"/>
+        <v>46.599999999999994</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="8"/>
+        <v>3.5362707601466905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="3"/>
+        <v>45.25</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="4"/>
+        <v>5.5396299515400846</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="5"/>
+        <v>44.875</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="6"/>
+        <v>3.5421568288261884</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="7"/>
+        <v>45.0625</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="8"/>
+        <v>4.5408933901831361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S26" s="1">
+        <f>AVERAGE(S17:S25)</f>
+        <v>50.827777777777783</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" ref="T26:V26" si="9">AVERAGE(T17:T25)</f>
+        <v>4.2984052109519526</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="9"/>
+        <v>49.567592592592597</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="9"/>
+        <v>3.6818414301083289</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="7"/>
+        <v>50.197685185185193</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="8"/>
+        <v>3.9901233205301407</v>
       </c>
     </row>
   </sheetData>
@@ -3753,10 +5018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3764,12 +5029,12 @@
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3777,7 +5042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -3803,7 +5068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3832,7 +5097,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3861,7 +5126,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3893,7 +5158,7 @@
         <v>12.399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3921,7 +5186,7 @@
         <v>0.79999999999999982</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3938,7 +5203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3955,7 +5220,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3965,8 +5230,20 @@
       <c r="F11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3976,8 +5253,35 @@
       <c r="F12">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J17" si="0">AVERAGE(B5,E5)</f>
+        <v>90</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K17" si="1">_xlfn.STDEV.P(B5,E5)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L17" si="2">AVERAGE(C5,F5)</f>
+        <v>90</v>
+      </c>
+      <c r="M12">
+        <f>_xlfn.STDEV.P(C5,F5)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>AVERAGE(J12,L12)</f>
+        <v>90</v>
+      </c>
+      <c r="O12">
+        <f>AVERAGE(K12,M12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -3997,8 +5301,35 @@
         <f>AVERAGE(F6:F12)</f>
         <v>69.571428571428569</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="M13">
+        <f>_xlfn.STDEV.P(C6,F6)</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N18" si="3">AVERAGE(J13,L13)</f>
+        <v>90</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O18" si="4">AVERAGE(K13,M13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -4018,8 +5349,64 @@
         <f>_xlfn.STDEV.P(F6:F12)</f>
         <v>15.801059122342245</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>77.5</v>
+      </c>
+      <c r="M14">
+        <f>_xlfn.STDEV.P(C7,F7)</f>
+        <v>12.5</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>78.25</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>65.5</v>
+      </c>
+      <c r="M15">
+        <f>_xlfn.STDEV.P(C8,F8)</f>
+        <v>10.5</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>65.75</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -4031,8 +5418,35 @@
         <f>AVERAGE(E13:F13)</f>
         <v>68.571428571428569</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="M16">
+        <f>_xlfn.STDEV.P(C9,F9)</f>
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -4044,8 +5458,64 @@
         <f>AVERAGE(E14:F14)</f>
         <v>16.3599163291228</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17" si="5">_xlfn.STDEV.P(C10,F10)</f>
+        <v>9.5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>53.75</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18">
+        <f>AVERAGE(J12:J17)</f>
+        <v>72.5</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:M18" si="6">AVERAGE(K12:K17)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>72.75</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>7.083333333333333</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>72.625</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -4063,10 +5533,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4840,7 +6310,21 @@
         <v>1.8844151368961315</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -4872,8 +6356,35 @@
         <f>AVERAGE(U14:V14)</f>
         <v>44.285714285714292</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="1">
+        <f>AVERAGE(C5,F5,L5,O5,R5,U5)</f>
+        <v>65.86666666666666</v>
+      </c>
+      <c r="Z17">
+        <f>_xlfn.STDEV.P(C5,F5,I5,L5,O5,R5,U5)</f>
+        <v>4.8408128850178782</v>
+      </c>
+      <c r="AA17" s="1">
+        <f>AVERAGE(D5,G5,J5,M5,P5,S5,V5)</f>
+        <v>66.661904761904765</v>
+      </c>
+      <c r="AB17">
+        <f>_xlfn.STDEV.P(D5,G5,J5,M5,P5,S5,V5)</f>
+        <v>5.9168961342874358</v>
+      </c>
+      <c r="AC17" s="1">
+        <f>AVERAGE(Y17,AA17)</f>
+        <v>66.264285714285705</v>
+      </c>
+      <c r="AD17">
+        <f>AVERAGE(Z17,AB17)</f>
+        <v>5.3788545096526565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4905,8 +6416,122 @@
         <f>AVERAGE(U15:V15)</f>
         <v>2.6294949700220251</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" ref="Y18:Y24" si="1">AVERAGE(C6,F6,L6,O6,R6,U6)</f>
+        <v>48.779166666666669</v>
+      </c>
+      <c r="Z18">
+        <f>_xlfn.STDEV.P(C6,F6,I6,L6,O6,R6,U6)</f>
+        <v>2.7322105500484257</v>
+      </c>
+      <c r="AA18" s="1">
+        <f t="shared" ref="AA18:AA24" si="2">AVERAGE(D6,G6,J6,M6,P6,S6,V6)</f>
+        <v>48.792857142857144</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" ref="AB18:AB24" si="3">_xlfn.STDEV.P(D6,G6,J6,M6,P6,S6,V6)</f>
+        <v>3.1259773981712584</v>
+      </c>
+      <c r="AC18" s="1">
+        <f t="shared" ref="AC18:AC25" si="4">AVERAGE(Y18,AA18)</f>
+        <v>48.786011904761907</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" ref="AD18:AD25" si="5">AVERAGE(Z18,AB18)</f>
+        <v>2.9290939741098421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X19" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="1"/>
+        <v>47.655555555555559</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" ref="Z19:Z24" si="6">_xlfn.STDEV.P(C7,F7,I7,L7,O7,R7,U7)</f>
+        <v>6.6423092451980645</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" si="2"/>
+        <v>47.580952380952382</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="3"/>
+        <v>4.4557384844913042</v>
+      </c>
+      <c r="AC19" s="1">
+        <f t="shared" si="4"/>
+        <v>47.618253968253967</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="5"/>
+        <v>5.5490238648446848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="1"/>
+        <v>47.338888888888881</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="6"/>
+        <v>5.0153641493934291</v>
+      </c>
+      <c r="AA20" s="1">
+        <f t="shared" si="2"/>
+        <v>47.300000000000004</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="3"/>
+        <v>3.2859006158346999</v>
+      </c>
+      <c r="AC20" s="1">
+        <f t="shared" si="4"/>
+        <v>47.319444444444443</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="5"/>
+        <v>4.1506323826140648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="1"/>
+        <v>46.112500000000004</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="6"/>
+        <v>4.48019166408523</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" si="2"/>
+        <v>46.49285714285714</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="3"/>
+        <v>4.2088706129714533</v>
+      </c>
+      <c r="AC21" s="1">
+        <f t="shared" si="4"/>
+        <v>46.302678571428572</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="5"/>
+        <v>4.3445311385283416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -4930,6 +6555,120 @@
       </c>
       <c r="U22">
         <v>126</v>
+      </c>
+      <c r="X22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="1"/>
+        <v>45.355555555555554</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="6"/>
+        <v>4.5268060251258442</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" si="2"/>
+        <v>45.771428571428565</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="3"/>
+        <v>4.7838162547472471</v>
+      </c>
+      <c r="AC22" s="1">
+        <f t="shared" si="4"/>
+        <v>45.563492063492063</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="5"/>
+        <v>4.6553111399365452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" si="1"/>
+        <v>45.075000000000003</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="6"/>
+        <v>3.9040688354871795</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" si="2"/>
+        <v>46.479166666666664</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="3"/>
+        <v>4.064849747803998</v>
+      </c>
+      <c r="AC23" s="1">
+        <f t="shared" si="4"/>
+        <v>45.777083333333337</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="5"/>
+        <v>3.9844592916455888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="1"/>
+        <v>45.283333333333331</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="6"/>
+        <v>3.506845983216258</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" si="2"/>
+        <v>45.575000000000003</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="3"/>
+        <v>2.1660736367907716</v>
+      </c>
+      <c r="AC24" s="1">
+        <f t="shared" si="4"/>
+        <v>45.429166666666667</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="5"/>
+        <v>2.8364598100035145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y25" s="1">
+        <f>AVERAGE(Y17:Y24)</f>
+        <v>48.933333333333337</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" ref="Z25:AB25" si="7">AVERAGE(Z17:Z24)</f>
+        <v>4.4560761671965379</v>
+      </c>
+      <c r="AA25" s="1">
+        <f t="shared" si="7"/>
+        <v>49.33177083333333</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="7"/>
+        <v>4.0010153606372709</v>
+      </c>
+      <c r="AC25" s="1">
+        <f t="shared" si="4"/>
+        <v>49.132552083333337</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="5"/>
+        <v>4.2285457639169044</v>
       </c>
     </row>
   </sheetData>
@@ -4939,10 +6678,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5449,7 +7188,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -5467,6 +7206,223 @@
       </c>
       <c r="N17">
         <v>24.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S19" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20">
+        <f>AVERAGE(B3,E3,H3,K3,N3)</f>
+        <v>90</v>
+      </c>
+      <c r="T20">
+        <f>_xlfn.STDEV.P(B3,E3,H3,K3,N3)</f>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f>AVERAGE(C3,F3,I3,L3,O3)</f>
+        <v>90</v>
+      </c>
+      <c r="V20">
+        <f>_xlfn.STDEV.P(C3,F3,I3,L3,O3)</f>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f>AVERAGE(S20,U20)</f>
+        <v>90</v>
+      </c>
+      <c r="X20">
+        <f>AVERAGE(T20,V20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ref="S21:S25" si="1">AVERAGE(B4,E4,H4,K4,N4)</f>
+        <v>86.2</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ref="T21:T25" si="2">_xlfn.STDEV.P(B4,E4,H4,K4,N4)</f>
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="U21">
+        <f t="shared" ref="U21:U25" si="3">AVERAGE(C4,F4,I4,L4,O4)</f>
+        <v>85.8</v>
+      </c>
+      <c r="V21">
+        <f t="shared" ref="V21:V25" si="4">_xlfn.STDEV.P(C4,F4,I4,L4,O4)</f>
+        <v>8.4</v>
+      </c>
+      <c r="W21">
+        <f t="shared" ref="W21:W25" si="5">AVERAGE(S21,U21)</f>
+        <v>86</v>
+      </c>
+      <c r="X21">
+        <f t="shared" ref="X21:X25" si="6">AVERAGE(T21,V21)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>58.2</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>6.6151341634164913</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="3"/>
+        <v>59.8</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="4"/>
+        <v>6.7646138101151054</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="6"/>
+        <v>6.6898739867657984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>46.4</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>3.878143885933063</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="3"/>
+        <v>46.8</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="4"/>
+        <v>3.6551333764994132</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="5"/>
+        <v>46.599999999999994</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="6"/>
+        <v>3.7666386312162379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>43.6</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="3"/>
+        <v>45.4</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="4"/>
+        <v>2.0591260281974</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="5"/>
+        <v>44.5</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="6"/>
+        <v>1.6295630140987001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>1.247219128924647</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="3"/>
+        <v>43.666666666666664</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="4"/>
+        <v>1.247219128924647</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="5"/>
+        <v>43.5</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="6"/>
+        <v>1.247219128924647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S26">
+        <f>AVERAGE(S20:S25)</f>
+        <v>61.288888888888884</v>
+      </c>
+      <c r="T26">
+        <f t="shared" ref="T26:V26" si="7">AVERAGE(T20:T25)</f>
+        <v>3.4234161963790335</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="7"/>
+        <v>61.911111111111119</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="7"/>
+        <v>3.6876820572894284</v>
+      </c>
+      <c r="W26">
+        <f>AVERAGE(S26,U26)</f>
+        <v>61.6</v>
+      </c>
+      <c r="X26">
+        <f>AVERAGE(T26,V26)</f>
+        <v>3.5555491268342312</v>
       </c>
     </row>
   </sheetData>
@@ -5476,10 +7432,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6058,7 +8014,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -6079,6 +8035,223 @@
       </c>
       <c r="Q17">
         <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <f>AVERAGE(B3,E3,H3,K3,N3,Q3)</f>
+        <v>90</v>
+      </c>
+      <c r="V19">
+        <f>_xlfn.STDEV.P(B3,E3,H3,K3,N3,Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f>AVERAGE(C3,F3,I3,L3,O3,R3)</f>
+        <v>90</v>
+      </c>
+      <c r="X19">
+        <f>_xlfn.STDEV.P(C3,F3,I3,L3,O3,R3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f>AVERAGE(U19,W19)</f>
+        <v>90</v>
+      </c>
+      <c r="Z19">
+        <f>AVERAGE(V19,X19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ref="U20:U24" si="1">AVERAGE(B4,E4,H4,K4,N4,Q4)</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ref="V20:V24" si="2">_xlfn.STDEV.P(B4,E4,H4,K4,N4,Q4)</f>
+        <v>12.498888839501783</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ref="W20:W24" si="3">AVERAGE(C4,F4,I4,L4,O4,R4)</f>
+        <v>67.666666666666671</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ref="X20:X24" si="4">_xlfn.STDEV.P(C4,F4,I4,L4,O4,R4)</f>
+        <v>13.816254517375137</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ref="Y20:Y24" si="5">AVERAGE(U20,W20)</f>
+        <v>68</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" ref="Z20:Z24" si="6">AVERAGE(V20,X20)</f>
+        <v>13.15757167843846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T21" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>52.833333333333336</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>5.7566386797235145</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="3"/>
+        <v>50.666666666666664</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="4"/>
+        <v>4.4596960534198837</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="5"/>
+        <v>51.75</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="6"/>
+        <v>5.1081673665716991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>48.5</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>2.6925824035672519</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="3"/>
+        <v>47.5</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="4"/>
+        <v>3.2532035493238558</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="6"/>
+        <v>2.9728929764455536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>2.5819888974716112</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="6"/>
+        <v>2.2909944487358054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>9</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>3.03315017762062</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="3"/>
+        <v>45.6</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="4"/>
+        <v>2.2449944320643649</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="5"/>
+        <v>45.8</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="6"/>
+        <v>2.6390723048424922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>41</v>
+      </c>
+      <c r="U25">
+        <f>AVERAGE(U19:U24)</f>
+        <v>58.611111111111107</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ref="V25:X25" si="7">AVERAGE(V19:V24)</f>
+        <v>4.4272081663141298</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="7"/>
+        <v>57.905555555555566</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="7"/>
+        <v>4.2956914253638736</v>
+      </c>
+      <c r="Y25">
+        <f>AVERAGE(U25,W25)</f>
+        <v>58.25833333333334</v>
+      </c>
+      <c r="Z25">
+        <f>AVERAGE(V25,X25)</f>
+        <v>4.3614497958390022</v>
       </c>
     </row>
   </sheetData>
@@ -6088,10 +8261,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6725,7 +8898,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -6746,6 +8919,281 @@
       </c>
       <c r="Q17">
         <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" t="s">
+        <v>38</v>
+      </c>
+      <c r="X18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U19" t="s">
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <f>AVERAGE(B3,E3,H3,K3,N3,Q3)</f>
+        <v>90</v>
+      </c>
+      <c r="W19">
+        <f>_xlfn.STDEV.P(B3,E3,H3,K3,N3,Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f>AVERAGE(C3,F3,I3,L3,O3,R3)</f>
+        <v>90</v>
+      </c>
+      <c r="Y19">
+        <f>_xlfn.STDEV.P(C3,F3,I3,L3,O3,R3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f>AVERAGE(V19,X19)</f>
+        <v>90</v>
+      </c>
+      <c r="AA19">
+        <f>AVERAGE(W19,Y19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U20" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ref="V20:V26" si="1">AVERAGE(B4,E4,H4,K4,N4,Q4)</f>
+        <v>90</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ref="W20:W26" si="2">_xlfn.STDEV.P(B4,E4,H4,K4,N4,Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ref="X20:X26" si="3">AVERAGE(C4,F4,I4,L4,O4,R4)</f>
+        <v>90</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ref="Y20:Y26" si="4">_xlfn.STDEV.P(C4,F4,I4,L4,O4,R4)</f>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" ref="Z20:Z27" si="5">AVERAGE(V20,X20)</f>
+        <v>90</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" ref="AA20:AA27" si="6">AVERAGE(W20,Y20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U21" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>84.166666666666671</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>9.9065074011423864</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="3"/>
+        <v>85.333333333333329</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="4"/>
+        <v>6.9920589878010109</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="5"/>
+        <v>84.75</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="6"/>
+        <v>8.4492831944716986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U22" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>66.5</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>12.107160415776002</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="3"/>
+        <v>67.5</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="4"/>
+        <v>12.592987466575726</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="6"/>
+        <v>12.350073941175864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>77.666666666666671</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>12.657891697365017</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="3"/>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="4"/>
+        <v>13.287420951996499</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="5"/>
+        <v>77.166666666666671</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="6"/>
+        <v>12.972656324680758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U24" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>70.166666666666671</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>8.1120623490919712</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="3"/>
+        <v>69.166666666666671</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="4"/>
+        <v>10.807661891248983</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="5"/>
+        <v>69.666666666666671</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="6"/>
+        <v>9.4598621201704773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U25" t="s">
+        <v>10</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>76.2</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>9.9277389167926859</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="3"/>
+        <v>76.599999999999994</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="4"/>
+        <v>9.4572723340295113</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="5"/>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="6"/>
+        <v>9.6925056254110977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U26" t="s">
+        <v>11</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>54.333333333333336</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>1.699673171197595</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="3"/>
+        <v>56.333333333333336</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="4"/>
+        <v>1.247219128924647</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="5"/>
+        <v>55.333333333333336</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="6"/>
+        <v>1.4734461500611209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U27" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27">
+        <f>AVERAGE(V19:V26)</f>
+        <v>76.129166666666677</v>
+      </c>
+      <c r="W27">
+        <f t="shared" ref="W27:Y27" si="7">AVERAGE(W19:W26)</f>
+        <v>6.8013792439207066</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="7"/>
+        <v>76.45</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="7"/>
+        <v>6.7980775950720469</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="5"/>
+        <v>76.28958333333334</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="6"/>
+        <v>6.7997284194963772</v>
       </c>
     </row>
   </sheetData>
@@ -6755,10 +9203,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7329,7 +9777,79 @@
         <v>2.8065834734293666</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="1">
+        <f>AVERAGE(B3,E3,H3,K3,N3)</f>
+        <v>90</v>
+      </c>
+      <c r="T19">
+        <f>_xlfn.STDEV.P(B3,E3,H3,K3,N3)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <f>AVERAGE(C3,F3,I3,L3,O3)</f>
+        <v>90</v>
+      </c>
+      <c r="V19">
+        <f>_xlfn.STDEV.P(C3,F3,I3,L3,O3)</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <f>AVERAGE(S19,U19)</f>
+        <v>90</v>
+      </c>
+      <c r="X19">
+        <f>AVERAGE(T19,V19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" ref="S20:S26" si="1">AVERAGE(B4,E4,H4,K4,N4)</f>
+        <v>63.379999999999995</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20:T26" si="2">_xlfn.STDEV.P(B4,E4,H4,K4,N4)</f>
+        <v>13.621218741360851</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" ref="U20:U26" si="3">AVERAGE(C4,F4,I4,L4,O4)</f>
+        <v>64</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ref="V20:V26" si="4">_xlfn.STDEV.P(C4,F4,I4,L4,O4)</f>
+        <v>13.66747965061591</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" ref="W20:W27" si="5">AVERAGE(S20,U20)</f>
+        <v>63.69</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ref="X20:X27" si="6">AVERAGE(T20,V20)</f>
+        <v>13.644349195988379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -7347,6 +9867,207 @@
       </c>
       <c r="N21">
         <v>34</v>
+      </c>
+      <c r="R21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="1"/>
+        <v>52.73</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>5.7106567047932693</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="4"/>
+        <v>5.1380930314660516</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="5"/>
+        <v>52.864999999999995</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="6"/>
+        <v>5.4243748681296609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="1"/>
+        <v>50.260000000000005</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>4.9427118062860984</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="3"/>
+        <v>50.792000000000002</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="4"/>
+        <v>6.4780441492783947</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="5"/>
+        <v>50.526000000000003</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="6"/>
+        <v>5.7103779777822465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>6.2289646009589745</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="3"/>
+        <v>49.6</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="4"/>
+        <v>5.4626001134990654</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="5"/>
+        <v>49.8</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="6"/>
+        <v>5.8457823572290195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="1"/>
+        <v>49.8</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>5.9126981996377932</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="3"/>
+        <v>49.46</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="4"/>
+        <v>6.060231018698838</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="5"/>
+        <v>49.629999999999995</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="6"/>
+        <v>5.9864646091683156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="1"/>
+        <v>47.2</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>4.2142615011410953</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="3"/>
+        <v>48.14</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="4"/>
+        <v>5.0118260145380109</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="5"/>
+        <v>47.67</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="6"/>
+        <v>4.6130437578395531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="1"/>
+        <v>48.337499999999999</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>4.2298603700358726</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="3"/>
+        <v>47.75</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="4"/>
+        <v>4.2056509603151806</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="5"/>
+        <v>48.043750000000003</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="6"/>
+        <v>4.2177556651755266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" s="1">
+        <f>AVERAGE(S19:S26)</f>
+        <v>56.463437499999998</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" ref="T27:V27" si="7">AVERAGE(T19:T26)</f>
+        <v>5.6075464905267447</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="7"/>
+        <v>56.592750000000002</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="7"/>
+        <v>5.7529906173014309</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="5"/>
+        <v>56.528093749999996</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="6"/>
+        <v>5.6802685539140878</v>
       </c>
     </row>
   </sheetData>
@@ -7356,10 +10077,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="S14" sqref="S14:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7368,7 +10089,7 @@
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -7376,7 +10097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -7420,7 +10141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7471,7 +10192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7522,7 +10243,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7573,7 +10294,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7624,7 +10345,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7675,7 +10396,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -7729,7 +10450,7 @@
         <v>88.4</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -7779,7 +10500,7 @@
         <v>11.253443917308159</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -7810,7 +10531,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -7830,7 +10551,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -7875,7 +10596,7 @@
         <v>45.472222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -7920,7 +10641,21 @@
         <v>6.0495000303565796</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -7944,8 +10679,35 @@
         <f>AVERAGE(O12:P12)</f>
         <v>45.173611111111114</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="1">
+        <f>AVERAGE(C3,F3,I3,L3,O3)</f>
+        <v>89.506666666666675</v>
+      </c>
+      <c r="T15">
+        <f>_xlfn.STDEV.P(C3,F3,I3,L3,O3)</f>
+        <v>0.98666666666666181</v>
+      </c>
+      <c r="U15" s="1">
+        <f>AVERAGE(D3,G3,J3,M3,P3)</f>
+        <v>90</v>
+      </c>
+      <c r="V15">
+        <f>_xlfn.STDEV.P(D3,G3,J3,M3,P3)</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <f>AVERAGE(S15,U15)</f>
+        <v>89.75333333333333</v>
+      </c>
+      <c r="X15">
+        <f>AVERAGE(T15,V15)</f>
+        <v>0.4933333333333309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -7969,8 +10731,151 @@
         <f>AVERAGE(O13:P13)</f>
         <v>5.4645044332233592</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" ref="S16:S22" si="1">AVERAGE(C4,F4,I4,L4,O4)</f>
+        <v>48.44</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ref="T16:T22" si="2">_xlfn.STDEV.P(C4,F4,I4,L4,O4)</f>
+        <v>6.8131376358066467</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" ref="U16:U22" si="3">AVERAGE(D4,G4,J4,M4,P4)</f>
+        <v>50.54</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ref="V16:V22" si="4">_xlfn.STDEV.P(D4,G4,J4,M4,P4)</f>
+        <v>6.8710148045572215</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" ref="W16:W23" si="5">AVERAGE(S16,U16)</f>
+        <v>49.489999999999995</v>
+      </c>
+      <c r="X16">
+        <f t="shared" ref="X16:X23" si="6">AVERAGE(T16,V16)</f>
+        <v>6.8420762201819336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="1"/>
+        <v>45.266666666666666</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>5.7043842787806902</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="3"/>
+        <v>45.63333333333334</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="4"/>
+        <v>4.6288947564906113</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="5"/>
+        <v>45.45</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="6"/>
+        <v>5.1666395176356508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="1"/>
+        <v>45.11333333333333</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>4.1267070541911632</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="3"/>
+        <v>45.13666666666667</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="4"/>
+        <v>4.3410495402737705</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="5"/>
+        <v>45.125</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="6"/>
+        <v>4.2338782972324669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>8</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="1"/>
+        <v>45.5</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>4.4397197108726481</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="3"/>
+        <v>45.866666666666667</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="4"/>
+        <v>3.6657574630324055</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="5"/>
+        <v>45.683333333333337</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="6"/>
+        <v>4.0527385869525272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>4.7199340861687684</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="3"/>
+        <v>43.266666666666666</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="4"/>
+        <v>3.9589560913621327</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="5"/>
+        <v>43.133333333333333</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="6"/>
+        <v>4.3394450887654505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -7988,6 +10893,91 @@
       </c>
       <c r="O21">
         <v>90</v>
+      </c>
+      <c r="R21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="1"/>
+        <v>45.65</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>3.9547439866570375</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="3"/>
+        <v>46.13333333333334</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="4"/>
+        <v>2.9314387821227532</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="5"/>
+        <v>45.891666666666666</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="6"/>
+        <v>3.4430913843898954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="1"/>
+        <v>43.25</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>2.5576682088704676</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="4"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="5"/>
+        <v>44.125</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="6"/>
+        <v>2.503578975826823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>41</v>
+      </c>
+      <c r="S23" s="1">
+        <f>AVERAGE(S15:S22)</f>
+        <v>50.715833333333329</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" ref="T23:V23" si="7">AVERAGE(T15:T22)</f>
+        <v>4.1628702035017602</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="7"/>
+        <v>51.447083333333332</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="7"/>
+        <v>3.6058251475777592</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="5"/>
+        <v>51.08145833333333</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="6"/>
+        <v>3.8843476755397597</v>
       </c>
     </row>
   </sheetData>
@@ -7997,10 +10987,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8008,12 +10998,12 @@
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8021,7 +11011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -8047,7 +11037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J5">
         <v>1</v>
       </c>
@@ -8061,7 +11051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -8079,6 +11069,14 @@
       <c r="G6">
         <v>90</v>
       </c>
+      <c r="H6">
+        <f>AVERAGE(F6:G6)</f>
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <f>_xlfn.STDEV.S(F6:G6)</f>
+        <v>0</v>
+      </c>
       <c r="J6">
         <v>2</v>
       </c>
@@ -8092,7 +11090,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -8110,6 +11108,14 @@
       <c r="G7">
         <v>59</v>
       </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H14" si="0">AVERAGE(F7:G7)</f>
+        <v>60.5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I14" si="1">_xlfn.STDEV.S(F7:G7)</f>
+        <v>2.1213203435596424</v>
+      </c>
       <c r="J7" t="s">
         <v>36</v>
       </c>
@@ -8118,15 +11124,15 @@
         <v>68.737678571428575</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:M7" si="0">AVERAGE(L5:L6)</f>
+        <f t="shared" ref="L7:M7" si="2">AVERAGE(L5:L6)</f>
         <v>4.8069626613574865</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8144,6 +11150,14 @@
       <c r="G8">
         <v>53</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654757</v>
+      </c>
       <c r="J8" t="s">
         <v>31</v>
       </c>
@@ -8156,7 +11170,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -8174,8 +11188,16 @@
       <c r="G9">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -8193,8 +11215,16 @@
       <c r="G10">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>48.5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -8212,8 +11242,16 @@
       <c r="G11">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>2.1213203435596424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -8231,8 +11269,16 @@
       <c r="G12">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>53.5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -8250,16 +11296,32 @@
       <c r="G13">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>2.1213203435596424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>48</v>
       </c>
       <c r="G14">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>2.1213203435596424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -8280,7 +11342,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -8300,8 +11362,49 @@
         <f>_xlfn.STDEV.P(G7:G14)</f>
         <v>3.2015621187164243</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <f>AVERAGE(B6,F6)</f>
+        <v>90</v>
+      </c>
+      <c r="L17">
+        <f>_xlfn.STDEV.S(B6,F6)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f>AVERAGE(C6,G6)</f>
+        <v>90</v>
+      </c>
+      <c r="N17">
+        <f>_xlfn.STDEV.S(C6,G6)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <f>AVERAGE(K17,M17)</f>
+        <v>90</v>
+      </c>
+      <c r="P17">
+        <f>AVERAGE(L17,N17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -8313,8 +11416,35 @@
         <f>AVERAGE(F15:G15)</f>
         <v>51.8125</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" ref="K18:K24" si="3">AVERAGE(B7,F7)</f>
+        <v>76</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L24" si="4">_xlfn.STDEV.S(B7,F7)</f>
+        <v>19.798989873223331</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" ref="M18:M25" si="5">AVERAGE(C7,G7)</f>
+        <v>74.5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:N26" si="6">_xlfn.STDEV.S(C7,G7)</f>
+        <v>21.920310216782973</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18:O25" si="7">AVERAGE(K18,M18)</f>
+        <v>75.25</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P26" si="8">AVERAGE(L18,N18)</f>
+        <v>20.85965004500315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -8326,8 +11456,122 @@
         <f>AVERAGE(F16:G16)</f>
         <v>3.9250753070815936</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>26.870057685088806</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="5"/>
+        <v>71.5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>26.16295090390226</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="7"/>
+        <v>71.25</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>26.516504294495533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>31.11269837220809</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>29.698484809834994</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="7"/>
+        <v>68.5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>30.40559159102154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>29.698484809834994</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="5"/>
+        <v>69.5</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>28.991378028648448</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="7"/>
+        <v>69.25</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>29.344931419241721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="3"/>
+        <v>67.737499999999997</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>23.670399500219652</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="5"/>
+        <v>68.712500000000006</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>20.806617036414188</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="7"/>
+        <v>68.224999999999994</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>22.23850826831692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -8337,8 +11581,90 @@
       <c r="F23">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="3"/>
+        <v>67.3</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>20.223253941935248</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="5"/>
+        <v>67.58</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>19.205020177026633</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="7"/>
+        <v>67.44</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>19.71413705948094</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="3"/>
+        <v>62.95</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>19.728279195104673</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="5"/>
+        <v>61.86</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>13.944145724998711</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="7"/>
+        <v>62.405000000000001</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>16.836212460051691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <f>AVERAGE(C14,G14)</f>
+        <v>51</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <f>M25</f>
+        <v>51</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8346,8 +11672,35 @@
         <f>AVERAGE(B23,F23)</f>
         <v>36.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="1">
+        <f>AVERAGE(K17:K24)</f>
+        <v>71.498437500000009</v>
+      </c>
+      <c r="L26">
+        <f>AVERAGE(L18:L24)</f>
+        <v>24.443166196802114</v>
+      </c>
+      <c r="M26" s="1">
+        <f>AVERAGE(M17:M25)</f>
+        <v>69.294722222222219</v>
+      </c>
+      <c r="N26">
+        <f>AVERAGE(N18:N24)</f>
+        <v>22.961272413944034</v>
+      </c>
+      <c r="O26" s="1">
+        <f>M26</f>
+        <v>69.294722222222219</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>23.702219305373074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27">
         <f>_xlfn.STDEV.P(F23,B23)</f>
